--- a/dataproject/data/BOG1.xlsx
+++ b/dataproject/data/BOG1.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliusvikjaer/Downloads/projects-2024-mikkel-julius-jacob-b03b31393c28c58e54a2a853e5aec07016723a1c 3/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliusvikjaer/Desktop/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC437C3E-7BCC-4F4C-86B5-EA6BF65881C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245EF78A-072F-AE4B-A210-4FA367DD8AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3800" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{66BBCDE3-EF72-F348-BCB7-BF9BD7A7DFEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
   <si>
     <t>1973</t>
   </si>
@@ -216,13 +217,118 @@
   </si>
   <si>
     <t>40-44</t>
+  </si>
+  <si>
+    <t>15 år</t>
+  </si>
+  <si>
+    <t>16 år</t>
+  </si>
+  <si>
+    <t>17 år</t>
+  </si>
+  <si>
+    <t>18 år</t>
+  </si>
+  <si>
+    <t>19 år</t>
+  </si>
+  <si>
+    <t>20 år</t>
+  </si>
+  <si>
+    <t>21 år</t>
+  </si>
+  <si>
+    <t>22 år</t>
+  </si>
+  <si>
+    <t>23 år</t>
+  </si>
+  <si>
+    <t>24 år</t>
+  </si>
+  <si>
+    <t>25 år</t>
+  </si>
+  <si>
+    <t>26 år</t>
+  </si>
+  <si>
+    <t>27 år</t>
+  </si>
+  <si>
+    <t>28 år</t>
+  </si>
+  <si>
+    <t>29 år</t>
+  </si>
+  <si>
+    <t>30 år</t>
+  </si>
+  <si>
+    <t>31 år</t>
+  </si>
+  <si>
+    <t>32 år</t>
+  </si>
+  <si>
+    <t>33 år</t>
+  </si>
+  <si>
+    <t>34 år</t>
+  </si>
+  <si>
+    <t>35 år</t>
+  </si>
+  <si>
+    <t>36 år</t>
+  </si>
+  <si>
+    <t>37 år</t>
+  </si>
+  <si>
+    <t>38 år</t>
+  </si>
+  <si>
+    <t>39 år</t>
+  </si>
+  <si>
+    <t>40 år</t>
+  </si>
+  <si>
+    <t>41 år</t>
+  </si>
+  <si>
+    <t>42 år</t>
+  </si>
+  <si>
+    <t>43 år</t>
+  </si>
+  <si>
+    <t>44 år</t>
+  </si>
+  <si>
+    <t>45 år</t>
+  </si>
+  <si>
+    <t>46 år</t>
+  </si>
+  <si>
+    <t>47 år</t>
+  </si>
+  <si>
+    <t>48 år</t>
+  </si>
+  <si>
+    <t>49 år</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -239,6 +345,13 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -265,10 +378,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,7 +725,7 @@
   <dimension ref="A1:AZ10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:AZ10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1885,4 +2004,5714 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BF9440-2EC1-5144-B80E-332125E52EA0}">
+  <dimension ref="A1:AZ38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:52" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="X4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AM4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AN4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AO4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AP4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AQ4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AR4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AS4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AT4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AU4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AX4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="R5" s="4">
+        <v>1</v>
+      </c>
+      <c r="S5" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T5" s="4">
+        <v>1</v>
+      </c>
+      <c r="U5" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="W5" s="4">
+        <v>1</v>
+      </c>
+      <c r="X5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AI5" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AJ5" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="AK5" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="AL5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AN5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AO5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AP5" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AQ5" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AR5" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="AS5" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AT5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AU5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AV5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AW5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AY5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AZ5" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="D6" s="4">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G6" s="4">
+        <v>8</v>
+      </c>
+      <c r="H6" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="I6" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="J6" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="K6" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="L6" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="M6" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="N6" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="O6" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="P6" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="R6" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="S6" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="T6" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="U6" s="4">
+        <v>4</v>
+      </c>
+      <c r="V6" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="W6" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="X6" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="AM6" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="AN6" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="AP6" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="AT6" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="AU6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AV6" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="AW6" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AX6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AY6" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AZ6" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="4">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4">
+        <v>26.3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>28.6</v>
+      </c>
+      <c r="E7" s="4">
+        <v>23.6</v>
+      </c>
+      <c r="F7" s="4">
+        <v>22.1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>20.7</v>
+      </c>
+      <c r="H7" s="4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="I7" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="J7" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="K7" s="4">
+        <v>11.9</v>
+      </c>
+      <c r="L7" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="M7" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="N7" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="O7" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="P7" s="4">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="R7" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="S7" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="T7" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="U7" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="V7" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="W7" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="X7" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>5</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="AJ7" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="AK7" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="AL7" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="AM7" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AN7" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AO7" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="AP7" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="AQ7" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="AR7" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="AS7" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="AT7" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AU7" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="AV7" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="AW7" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="AX7" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="AY7" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="AZ7" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="4">
+        <v>50.5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>52</v>
+      </c>
+      <c r="D8" s="4">
+        <v>53</v>
+      </c>
+      <c r="E8" s="4">
+        <v>46.7</v>
+      </c>
+      <c r="F8" s="4">
+        <v>45.7</v>
+      </c>
+      <c r="G8" s="4">
+        <v>40.6</v>
+      </c>
+      <c r="H8" s="4">
+        <v>37.4</v>
+      </c>
+      <c r="I8" s="4">
+        <v>33.1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>29.8</v>
+      </c>
+      <c r="K8" s="4">
+        <v>24.2</v>
+      </c>
+      <c r="L8" s="4">
+        <v>22.2</v>
+      </c>
+      <c r="M8" s="4">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="N8" s="4">
+        <v>18.7</v>
+      </c>
+      <c r="O8" s="4">
+        <v>18.8</v>
+      </c>
+      <c r="P8" s="4">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>18</v>
+      </c>
+      <c r="R8" s="4">
+        <v>19</v>
+      </c>
+      <c r="S8" s="4">
+        <v>17.8</v>
+      </c>
+      <c r="T8" s="4">
+        <v>17.8</v>
+      </c>
+      <c r="U8" s="4">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="V8" s="4">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="W8" s="4">
+        <v>18.2</v>
+      </c>
+      <c r="X8" s="4">
+        <v>18</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>16.7</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>13</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>13</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>11.7</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="AL8" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="AM8" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="AN8" s="4">
+        <v>9.4</v>
+      </c>
+      <c r="AO8" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AP8" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="AQ8" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="AR8" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="AS8" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AT8" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="AU8" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="AV8" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="AW8" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="AX8" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="AY8" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="AZ8" s="4">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="4">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="C9" s="4">
+        <v>78.2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>83.3</v>
+      </c>
+      <c r="E9" s="4">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="F9" s="4">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="G9" s="4">
+        <v>65.2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>59.5</v>
+      </c>
+      <c r="I9" s="4">
+        <v>56.6</v>
+      </c>
+      <c r="J9" s="4">
+        <v>49.6</v>
+      </c>
+      <c r="K9" s="4">
+        <v>45.2</v>
+      </c>
+      <c r="L9" s="4">
+        <v>38.4</v>
+      </c>
+      <c r="M9" s="4">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="N9" s="4">
+        <v>34.1</v>
+      </c>
+      <c r="O9" s="4">
+        <v>31.1</v>
+      </c>
+      <c r="P9" s="4">
+        <v>30.3</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>30.9</v>
+      </c>
+      <c r="R9" s="4">
+        <v>32</v>
+      </c>
+      <c r="S9" s="4">
+        <v>32.9</v>
+      </c>
+      <c r="T9" s="4">
+        <v>28.7</v>
+      </c>
+      <c r="U9" s="4">
+        <v>31.2</v>
+      </c>
+      <c r="V9" s="4">
+        <v>29</v>
+      </c>
+      <c r="W9" s="4">
+        <v>29.4</v>
+      </c>
+      <c r="X9" s="4">
+        <v>29.2</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>30.7</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>27.4</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>26</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>25.3</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>26.3</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>25.5</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>24</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>22.8</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>19.8</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="AJ9" s="4">
+        <v>19.8</v>
+      </c>
+      <c r="AK9" s="4">
+        <v>22</v>
+      </c>
+      <c r="AL9" s="4">
+        <v>19.8</v>
+      </c>
+      <c r="AM9" s="4">
+        <v>19</v>
+      </c>
+      <c r="AN9" s="4">
+        <v>15.6</v>
+      </c>
+      <c r="AO9" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="AP9" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="AQ9" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="AR9" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="AS9" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="AT9" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="AU9" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="AV9" s="4">
+        <v>9</v>
+      </c>
+      <c r="AW9" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="AX9" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="AY9" s="4">
+        <v>6</v>
+      </c>
+      <c r="AZ9" s="4">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="4">
+        <v>104.6</v>
+      </c>
+      <c r="C10" s="4">
+        <v>107.6</v>
+      </c>
+      <c r="D10" s="4">
+        <v>110.6</v>
+      </c>
+      <c r="E10" s="4">
+        <v>95.9</v>
+      </c>
+      <c r="F10" s="4">
+        <v>93.2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>87.7</v>
+      </c>
+      <c r="H10" s="4">
+        <v>83.2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>78.8</v>
+      </c>
+      <c r="J10" s="4">
+        <v>69</v>
+      </c>
+      <c r="K10" s="4">
+        <v>65.3</v>
+      </c>
+      <c r="L10" s="4">
+        <v>57.9</v>
+      </c>
+      <c r="M10" s="4">
+        <v>54.1</v>
+      </c>
+      <c r="N10" s="4">
+        <v>51.8</v>
+      </c>
+      <c r="O10" s="4">
+        <v>48.5</v>
+      </c>
+      <c r="P10" s="4">
+        <v>45.6</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>44.9</v>
+      </c>
+      <c r="R10" s="4">
+        <v>43.2</v>
+      </c>
+      <c r="S10" s="4">
+        <v>46</v>
+      </c>
+      <c r="T10" s="4">
+        <v>43.5</v>
+      </c>
+      <c r="U10" s="4">
+        <v>41.1</v>
+      </c>
+      <c r="V10" s="4">
+        <v>41</v>
+      </c>
+      <c r="W10" s="4">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="X10" s="4">
+        <v>39.4</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>39</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>36.1</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>35.1</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>35.6</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>30.7</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>29.5</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>26.3</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>27.4</v>
+      </c>
+      <c r="AI10" s="4">
+        <v>26.3</v>
+      </c>
+      <c r="AJ10" s="4">
+        <v>27.7</v>
+      </c>
+      <c r="AK10" s="4">
+        <v>30.8</v>
+      </c>
+      <c r="AL10" s="4">
+        <v>27.7</v>
+      </c>
+      <c r="AM10" s="4">
+        <v>26.7</v>
+      </c>
+      <c r="AN10" s="4">
+        <v>23.9</v>
+      </c>
+      <c r="AO10" s="4">
+        <v>20.5</v>
+      </c>
+      <c r="AP10" s="4">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AQ10" s="4">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="AR10" s="4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AS10" s="4">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AT10" s="4">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="AU10" s="4">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AV10" s="4">
+        <v>13.6</v>
+      </c>
+      <c r="AW10" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="AX10" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="AY10" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="AZ10" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="4">
+        <v>127.4</v>
+      </c>
+      <c r="C11" s="4">
+        <v>127.9</v>
+      </c>
+      <c r="D11" s="4">
+        <v>133.19999999999999</v>
+      </c>
+      <c r="E11" s="4">
+        <v>117.4</v>
+      </c>
+      <c r="F11" s="4">
+        <v>113</v>
+      </c>
+      <c r="G11" s="4">
+        <v>109.2</v>
+      </c>
+      <c r="H11" s="4">
+        <v>103</v>
+      </c>
+      <c r="I11" s="4">
+        <v>95.3</v>
+      </c>
+      <c r="J11" s="4">
+        <v>86.9</v>
+      </c>
+      <c r="K11" s="4">
+        <v>80.5</v>
+      </c>
+      <c r="L11" s="4">
+        <v>76.3</v>
+      </c>
+      <c r="M11" s="4">
+        <v>74.2</v>
+      </c>
+      <c r="N11" s="4">
+        <v>69</v>
+      </c>
+      <c r="O11" s="4">
+        <v>68.8</v>
+      </c>
+      <c r="P11" s="4">
+        <v>62.1</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>60.7</v>
+      </c>
+      <c r="R11" s="4">
+        <v>63.3</v>
+      </c>
+      <c r="S11" s="4">
+        <v>60.7</v>
+      </c>
+      <c r="T11" s="4">
+        <v>59.8</v>
+      </c>
+      <c r="U11" s="4">
+        <v>59.2</v>
+      </c>
+      <c r="V11" s="4">
+        <v>52.7</v>
+      </c>
+      <c r="W11" s="4">
+        <v>54.2</v>
+      </c>
+      <c r="X11" s="4">
+        <v>52.3</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>49.2</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>48.3</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>47.1</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>44.7</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>42.9</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>43</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>40.4</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>37</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>37.1</v>
+      </c>
+      <c r="AI11" s="4">
+        <v>35.9</v>
+      </c>
+      <c r="AJ11" s="4">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="AK11" s="4">
+        <v>37.5</v>
+      </c>
+      <c r="AL11" s="4">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="AM11" s="4">
+        <v>36.9</v>
+      </c>
+      <c r="AN11" s="4">
+        <v>29.7</v>
+      </c>
+      <c r="AO11" s="4">
+        <v>32</v>
+      </c>
+      <c r="AP11" s="4">
+        <v>27.2</v>
+      </c>
+      <c r="AQ11" s="4">
+        <v>27.1</v>
+      </c>
+      <c r="AR11" s="4">
+        <v>27.4</v>
+      </c>
+      <c r="AS11" s="4">
+        <v>28.3</v>
+      </c>
+      <c r="AT11" s="4">
+        <v>26.7</v>
+      </c>
+      <c r="AU11" s="4">
+        <v>23.2</v>
+      </c>
+      <c r="AV11" s="4">
+        <v>20.6</v>
+      </c>
+      <c r="AW11" s="4">
+        <v>18.8</v>
+      </c>
+      <c r="AX11" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="AY11" s="4">
+        <v>15</v>
+      </c>
+      <c r="AZ11" s="4">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="4">
+        <v>143.4</v>
+      </c>
+      <c r="C12" s="4">
+        <v>146.9</v>
+      </c>
+      <c r="D12" s="4">
+        <v>151</v>
+      </c>
+      <c r="E12" s="4">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="F12" s="4">
+        <v>123.1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>123.9</v>
+      </c>
+      <c r="H12" s="4">
+        <v>116.8</v>
+      </c>
+      <c r="I12" s="4">
+        <v>112.4</v>
+      </c>
+      <c r="J12" s="4">
+        <v>101.3</v>
+      </c>
+      <c r="K12" s="4">
+        <v>97.9</v>
+      </c>
+      <c r="L12" s="4">
+        <v>88.2</v>
+      </c>
+      <c r="M12" s="4">
+        <v>83.1</v>
+      </c>
+      <c r="N12" s="4">
+        <v>84.5</v>
+      </c>
+      <c r="O12" s="4">
+        <v>85.4</v>
+      </c>
+      <c r="P12" s="4">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>80.7</v>
+      </c>
+      <c r="R12" s="4">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="S12" s="4">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="T12" s="4">
+        <v>75.5</v>
+      </c>
+      <c r="U12" s="4">
+        <v>74.8</v>
+      </c>
+      <c r="V12" s="4">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="W12" s="4">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="X12" s="4">
+        <v>65.2</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>60</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>57</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>57.3</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>56.7</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>54.1</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>51.1</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>49.4</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>47.6</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>45.1</v>
+      </c>
+      <c r="AI12" s="4">
+        <v>46.3</v>
+      </c>
+      <c r="AJ12" s="4">
+        <v>44.1</v>
+      </c>
+      <c r="AK12" s="4">
+        <v>48.3</v>
+      </c>
+      <c r="AL12" s="4">
+        <v>45.3</v>
+      </c>
+      <c r="AM12" s="4">
+        <v>44.7</v>
+      </c>
+      <c r="AN12" s="4">
+        <v>41.7</v>
+      </c>
+      <c r="AO12" s="4">
+        <v>39.4</v>
+      </c>
+      <c r="AP12" s="4">
+        <v>36.5</v>
+      </c>
+      <c r="AQ12" s="4">
+        <v>36.1</v>
+      </c>
+      <c r="AR12" s="4">
+        <v>36.5</v>
+      </c>
+      <c r="AS12" s="4">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="AT12" s="4">
+        <v>36.9</v>
+      </c>
+      <c r="AU12" s="4">
+        <v>33</v>
+      </c>
+      <c r="AV12" s="4">
+        <v>31</v>
+      </c>
+      <c r="AW12" s="4">
+        <v>26.7</v>
+      </c>
+      <c r="AX12" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="AY12" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="AZ12" s="4">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="4">
+        <v>157.1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>158.5</v>
+      </c>
+      <c r="D13" s="4">
+        <v>160.19999999999999</v>
+      </c>
+      <c r="E13" s="4">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="F13" s="4">
+        <v>136.4</v>
+      </c>
+      <c r="G13" s="4">
+        <v>139.4</v>
+      </c>
+      <c r="H13" s="4">
+        <v>133.9</v>
+      </c>
+      <c r="I13" s="4">
+        <v>124.6</v>
+      </c>
+      <c r="J13" s="4">
+        <v>115</v>
+      </c>
+      <c r="K13" s="4">
+        <v>109.3</v>
+      </c>
+      <c r="L13" s="4">
+        <v>101.4</v>
+      </c>
+      <c r="M13" s="4">
+        <v>103.5</v>
+      </c>
+      <c r="N13" s="4">
+        <v>102.9</v>
+      </c>
+      <c r="O13" s="4">
+        <v>98.8</v>
+      </c>
+      <c r="P13" s="4">
+        <v>99.5</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>95.9</v>
+      </c>
+      <c r="R13" s="4">
+        <v>95.8</v>
+      </c>
+      <c r="S13" s="4">
+        <v>97.8</v>
+      </c>
+      <c r="T13" s="4">
+        <v>95.3</v>
+      </c>
+      <c r="U13" s="4">
+        <v>93.3</v>
+      </c>
+      <c r="V13" s="4">
+        <v>91.3</v>
+      </c>
+      <c r="W13" s="4">
+        <v>87.6</v>
+      </c>
+      <c r="X13" s="4">
+        <v>85.6</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>72.2</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>70.5</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>69</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>65</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>60.2</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>63.2</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>59.5</v>
+      </c>
+      <c r="AI13" s="4">
+        <v>60.8</v>
+      </c>
+      <c r="AJ13" s="4">
+        <v>55.7</v>
+      </c>
+      <c r="AK13" s="4">
+        <v>63</v>
+      </c>
+      <c r="AL13" s="4">
+        <v>58.8</v>
+      </c>
+      <c r="AM13" s="4">
+        <v>59.6</v>
+      </c>
+      <c r="AN13" s="4">
+        <v>57.1</v>
+      </c>
+      <c r="AO13" s="4">
+        <v>54.4</v>
+      </c>
+      <c r="AP13" s="4">
+        <v>51.7</v>
+      </c>
+      <c r="AQ13" s="4">
+        <v>49.9</v>
+      </c>
+      <c r="AR13" s="4">
+        <v>50.5</v>
+      </c>
+      <c r="AS13" s="4">
+        <v>52.4</v>
+      </c>
+      <c r="AT13" s="4">
+        <v>51.4</v>
+      </c>
+      <c r="AU13" s="4">
+        <v>47.9</v>
+      </c>
+      <c r="AV13" s="4">
+        <v>43.6</v>
+      </c>
+      <c r="AW13" s="4">
+        <v>39.4</v>
+      </c>
+      <c r="AX13" s="4">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="AY13" s="4">
+        <v>31.6</v>
+      </c>
+      <c r="AZ13" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="4">
+        <v>162.4</v>
+      </c>
+      <c r="C14" s="4">
+        <v>160.69999999999999</v>
+      </c>
+      <c r="D14" s="4">
+        <v>163.30000000000001</v>
+      </c>
+      <c r="E14" s="4">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="F14" s="4">
+        <v>139.5</v>
+      </c>
+      <c r="G14" s="4">
+        <v>145.4</v>
+      </c>
+      <c r="H14" s="4">
+        <v>136.5</v>
+      </c>
+      <c r="I14" s="4">
+        <v>130.5</v>
+      </c>
+      <c r="J14" s="4">
+        <v>124.4</v>
+      </c>
+      <c r="K14" s="4">
+        <v>123.2</v>
+      </c>
+      <c r="L14" s="4">
+        <v>113.2</v>
+      </c>
+      <c r="M14" s="4">
+        <v>113.9</v>
+      </c>
+      <c r="N14" s="4">
+        <v>117.2</v>
+      </c>
+      <c r="O14" s="4">
+        <v>116.4</v>
+      </c>
+      <c r="P14" s="4">
+        <v>114.4</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>116.5</v>
+      </c>
+      <c r="R14" s="4">
+        <v>117</v>
+      </c>
+      <c r="S14" s="4">
+        <v>119</v>
+      </c>
+      <c r="T14" s="4">
+        <v>114.1</v>
+      </c>
+      <c r="U14" s="4">
+        <v>115.6</v>
+      </c>
+      <c r="V14" s="4">
+        <v>110.8</v>
+      </c>
+      <c r="W14" s="4">
+        <v>111</v>
+      </c>
+      <c r="X14" s="4">
+        <v>107.2</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>99.3</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>94.6</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>89.3</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>85.1</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>88.1</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>83.8</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>83.6</v>
+      </c>
+      <c r="AF14" s="4">
+        <v>80.3</v>
+      </c>
+      <c r="AG14" s="4">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="AI14" s="4">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="AJ14" s="4">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="AK14" s="4">
+        <v>77.7</v>
+      </c>
+      <c r="AL14" s="4">
+        <v>75.7</v>
+      </c>
+      <c r="AM14" s="4">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="AN14" s="4">
+        <v>72.5</v>
+      </c>
+      <c r="AO14" s="4">
+        <v>69.8</v>
+      </c>
+      <c r="AP14" s="4">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="AQ14" s="4">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="AR14" s="4">
+        <v>68.2</v>
+      </c>
+      <c r="AS14" s="4">
+        <v>68.7</v>
+      </c>
+      <c r="AT14" s="4">
+        <v>66.3</v>
+      </c>
+      <c r="AU14" s="4">
+        <v>64.8</v>
+      </c>
+      <c r="AV14" s="4">
+        <v>60.5</v>
+      </c>
+      <c r="AW14" s="4">
+        <v>57.5</v>
+      </c>
+      <c r="AX14" s="4">
+        <v>54.6</v>
+      </c>
+      <c r="AY14" s="4">
+        <v>48.3</v>
+      </c>
+      <c r="AZ14" s="4">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="4">
+        <v>156.4</v>
+      </c>
+      <c r="C15" s="4">
+        <v>153.9</v>
+      </c>
+      <c r="D15" s="4">
+        <v>156.1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>145.6</v>
+      </c>
+      <c r="F15" s="4">
+        <v>139.9</v>
+      </c>
+      <c r="G15" s="4">
+        <v>143.5</v>
+      </c>
+      <c r="H15" s="4">
+        <v>135.4</v>
+      </c>
+      <c r="I15" s="4">
+        <v>132.9</v>
+      </c>
+      <c r="J15" s="4">
+        <v>123.5</v>
+      </c>
+      <c r="K15" s="4">
+        <v>125.1</v>
+      </c>
+      <c r="L15" s="4">
+        <v>123.8</v>
+      </c>
+      <c r="M15" s="4">
+        <v>122.2</v>
+      </c>
+      <c r="N15" s="4">
+        <v>126.9</v>
+      </c>
+      <c r="O15" s="4">
+        <v>127.3</v>
+      </c>
+      <c r="P15" s="4">
+        <v>125.3</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="R15" s="4">
+        <v>132.5</v>
+      </c>
+      <c r="S15" s="4">
+        <v>131.30000000000001</v>
+      </c>
+      <c r="T15" s="4">
+        <v>131.4</v>
+      </c>
+      <c r="U15" s="4">
+        <v>131.6</v>
+      </c>
+      <c r="V15" s="4">
+        <v>128.1</v>
+      </c>
+      <c r="W15" s="4">
+        <v>133</v>
+      </c>
+      <c r="X15" s="4">
+        <v>128</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>121.8</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>114.4</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>110.9</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>110.1</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>108.4</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>105.6</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>101.9</v>
+      </c>
+      <c r="AF15" s="4">
+        <v>103.7</v>
+      </c>
+      <c r="AG15" s="4">
+        <v>102.6</v>
+      </c>
+      <c r="AH15" s="4">
+        <v>98.2</v>
+      </c>
+      <c r="AI15" s="4">
+        <v>103.6</v>
+      </c>
+      <c r="AJ15" s="4">
+        <v>98.5</v>
+      </c>
+      <c r="AK15" s="4">
+        <v>98</v>
+      </c>
+      <c r="AL15" s="4">
+        <v>98.3</v>
+      </c>
+      <c r="AM15" s="4">
+        <v>93.7</v>
+      </c>
+      <c r="AN15" s="4">
+        <v>88.7</v>
+      </c>
+      <c r="AO15" s="4">
+        <v>88.4</v>
+      </c>
+      <c r="AP15" s="4">
+        <v>88</v>
+      </c>
+      <c r="AQ15" s="4">
+        <v>87.9</v>
+      </c>
+      <c r="AR15" s="4">
+        <v>85.3</v>
+      </c>
+      <c r="AS15" s="4">
+        <v>90.3</v>
+      </c>
+      <c r="AT15" s="4">
+        <v>86.4</v>
+      </c>
+      <c r="AU15" s="4">
+        <v>84</v>
+      </c>
+      <c r="AV15" s="4">
+        <v>83</v>
+      </c>
+      <c r="AW15" s="4">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="AX15" s="4">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="AY15" s="4">
+        <v>67.7</v>
+      </c>
+      <c r="AZ15" s="4">
+        <v>62.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="4">
+        <v>147.69999999999999</v>
+      </c>
+      <c r="C16" s="4">
+        <v>142.30000000000001</v>
+      </c>
+      <c r="D16" s="4">
+        <v>146.30000000000001</v>
+      </c>
+      <c r="E16" s="4">
+        <v>135.5</v>
+      </c>
+      <c r="F16" s="4">
+        <v>129.6</v>
+      </c>
+      <c r="G16" s="4">
+        <v>135.5</v>
+      </c>
+      <c r="H16" s="4">
+        <v>131.1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>126.1</v>
+      </c>
+      <c r="J16" s="4">
+        <v>122.6</v>
+      </c>
+      <c r="K16" s="4">
+        <v>115.9</v>
+      </c>
+      <c r="L16" s="4">
+        <v>116.2</v>
+      </c>
+      <c r="M16" s="4">
+        <v>121.5</v>
+      </c>
+      <c r="N16" s="4">
+        <v>127.4</v>
+      </c>
+      <c r="O16" s="4">
+        <v>125.3</v>
+      </c>
+      <c r="P16" s="4">
+        <v>127.3</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="R16" s="4">
+        <v>134.30000000000001</v>
+      </c>
+      <c r="S16" s="4">
+        <v>136.5</v>
+      </c>
+      <c r="T16" s="4">
+        <v>139.6</v>
+      </c>
+      <c r="U16" s="4">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="V16" s="4">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="W16" s="4">
+        <v>143.5</v>
+      </c>
+      <c r="X16" s="4">
+        <v>139.5</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>130.69999999999999</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>133.80000000000001</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>125.1</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>126.3</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>125.7</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>120.5</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>119</v>
+      </c>
+      <c r="AF16" s="4">
+        <v>121.6</v>
+      </c>
+      <c r="AG16" s="4">
+        <v>122.5</v>
+      </c>
+      <c r="AH16" s="4">
+        <v>122.3</v>
+      </c>
+      <c r="AI16" s="4">
+        <v>122</v>
+      </c>
+      <c r="AJ16" s="4">
+        <v>121.7</v>
+      </c>
+      <c r="AK16" s="4">
+        <v>120.3</v>
+      </c>
+      <c r="AL16" s="4">
+        <v>116.4</v>
+      </c>
+      <c r="AM16" s="4">
+        <v>114.8</v>
+      </c>
+      <c r="AN16" s="4">
+        <v>109.8</v>
+      </c>
+      <c r="AO16" s="4">
+        <v>104.8</v>
+      </c>
+      <c r="AP16" s="4">
+        <v>99.3</v>
+      </c>
+      <c r="AQ16" s="4">
+        <v>105.6</v>
+      </c>
+      <c r="AR16" s="4">
+        <v>103.4</v>
+      </c>
+      <c r="AS16" s="4">
+        <v>109.9</v>
+      </c>
+      <c r="AT16" s="4">
+        <v>106.9</v>
+      </c>
+      <c r="AU16" s="4">
+        <v>102.7</v>
+      </c>
+      <c r="AV16" s="4">
+        <v>102.9</v>
+      </c>
+      <c r="AW16" s="4">
+        <v>96.2</v>
+      </c>
+      <c r="AX16" s="4">
+        <v>99.5</v>
+      </c>
+      <c r="AY16" s="4">
+        <v>89.6</v>
+      </c>
+      <c r="AZ16" s="4">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="4">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="C17" s="4">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="D17" s="4">
+        <v>132.1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>121.5</v>
+      </c>
+      <c r="F17" s="4">
+        <v>116.4</v>
+      </c>
+      <c r="G17" s="4">
+        <v>119.8</v>
+      </c>
+      <c r="H17" s="4">
+        <v>114.8</v>
+      </c>
+      <c r="I17" s="4">
+        <v>116.4</v>
+      </c>
+      <c r="J17" s="4">
+        <v>108.6</v>
+      </c>
+      <c r="K17" s="4">
+        <v>111.6</v>
+      </c>
+      <c r="L17" s="4">
+        <v>114</v>
+      </c>
+      <c r="M17" s="4">
+        <v>113.2</v>
+      </c>
+      <c r="N17" s="4">
+        <v>118.8</v>
+      </c>
+      <c r="O17" s="4">
+        <v>121.9</v>
+      </c>
+      <c r="P17" s="4">
+        <v>125.2</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>130</v>
+      </c>
+      <c r="R17" s="4">
+        <v>137.9</v>
+      </c>
+      <c r="S17" s="4">
+        <v>140.69999999999999</v>
+      </c>
+      <c r="T17" s="4">
+        <v>142</v>
+      </c>
+      <c r="U17" s="4">
+        <v>146.6</v>
+      </c>
+      <c r="V17" s="4">
+        <v>147</v>
+      </c>
+      <c r="W17" s="4">
+        <v>151</v>
+      </c>
+      <c r="X17" s="4">
+        <v>150.80000000000001</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>144.9</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>147.30000000000001</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>142.69999999999999</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>137.19999999999999</v>
+      </c>
+      <c r="AC17" s="4">
+        <v>140.4</v>
+      </c>
+      <c r="AD17" s="4">
+        <v>139</v>
+      </c>
+      <c r="AE17" s="4">
+        <v>134.5</v>
+      </c>
+      <c r="AF17" s="4">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="AG17" s="4">
+        <v>138.6</v>
+      </c>
+      <c r="AH17" s="4">
+        <v>136.4</v>
+      </c>
+      <c r="AI17" s="4">
+        <v>140.9</v>
+      </c>
+      <c r="AJ17" s="4">
+        <v>136.9</v>
+      </c>
+      <c r="AK17" s="4">
+        <v>138.9</v>
+      </c>
+      <c r="AL17" s="4">
+        <v>132</v>
+      </c>
+      <c r="AM17" s="4">
+        <v>138.1</v>
+      </c>
+      <c r="AN17" s="4">
+        <v>123.8</v>
+      </c>
+      <c r="AO17" s="4">
+        <v>123.8</v>
+      </c>
+      <c r="AP17" s="4">
+        <v>115.8</v>
+      </c>
+      <c r="AQ17" s="4">
+        <v>118.9</v>
+      </c>
+      <c r="AR17" s="4">
+        <v>121.4</v>
+      </c>
+      <c r="AS17" s="4">
+        <v>125.9</v>
+      </c>
+      <c r="AT17" s="4">
+        <v>123.3</v>
+      </c>
+      <c r="AU17" s="4">
+        <v>117.3</v>
+      </c>
+      <c r="AV17" s="4">
+        <v>119.2</v>
+      </c>
+      <c r="AW17" s="4">
+        <v>118.6</v>
+      </c>
+      <c r="AX17" s="4">
+        <v>120</v>
+      </c>
+      <c r="AY17" s="4">
+        <v>105.6</v>
+      </c>
+      <c r="AZ17" s="4">
+        <v>103.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="4">
+        <v>113.6</v>
+      </c>
+      <c r="C18" s="4">
+        <v>111</v>
+      </c>
+      <c r="D18" s="4">
+        <v>116.4</v>
+      </c>
+      <c r="E18" s="4">
+        <v>105.8</v>
+      </c>
+      <c r="F18" s="4">
+        <v>103.4</v>
+      </c>
+      <c r="G18" s="4">
+        <v>105.8</v>
+      </c>
+      <c r="H18" s="4">
+        <v>107.4</v>
+      </c>
+      <c r="I18" s="4">
+        <v>103.2</v>
+      </c>
+      <c r="J18" s="4">
+        <v>93.9</v>
+      </c>
+      <c r="K18" s="4">
+        <v>102.3</v>
+      </c>
+      <c r="L18" s="4">
+        <v>98.8</v>
+      </c>
+      <c r="M18" s="4">
+        <v>102.1</v>
+      </c>
+      <c r="N18" s="4">
+        <v>110.3</v>
+      </c>
+      <c r="O18" s="4">
+        <v>114.4</v>
+      </c>
+      <c r="P18" s="4">
+        <v>117.9</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>127.1</v>
+      </c>
+      <c r="R18" s="4">
+        <v>130.5</v>
+      </c>
+      <c r="S18" s="4">
+        <v>138.4</v>
+      </c>
+      <c r="T18" s="4">
+        <v>140</v>
+      </c>
+      <c r="U18" s="4">
+        <v>148.19999999999999</v>
+      </c>
+      <c r="V18" s="4">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="W18" s="4">
+        <v>147.6</v>
+      </c>
+      <c r="X18" s="4">
+        <v>150.19999999999999</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>146</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>145.30000000000001</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>140.9</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>143.9</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>147.5</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>147.80000000000001</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="AF18" s="4">
+        <v>146.69999999999999</v>
+      </c>
+      <c r="AG18" s="4">
+        <v>148.5</v>
+      </c>
+      <c r="AH18" s="4">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="AI18" s="4">
+        <v>150.19999999999999</v>
+      </c>
+      <c r="AJ18" s="4">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="AK18" s="4">
+        <v>146.5</v>
+      </c>
+      <c r="AL18" s="4">
+        <v>145.5</v>
+      </c>
+      <c r="AM18" s="4">
+        <v>149.19999999999999</v>
+      </c>
+      <c r="AN18" s="4">
+        <v>136.9</v>
+      </c>
+      <c r="AO18" s="4">
+        <v>138.6</v>
+      </c>
+      <c r="AP18" s="4">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="AQ18" s="4">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="AR18" s="4">
+        <v>135</v>
+      </c>
+      <c r="AS18" s="4">
+        <v>142.4</v>
+      </c>
+      <c r="AT18" s="4">
+        <v>138.1</v>
+      </c>
+      <c r="AU18" s="4">
+        <v>138</v>
+      </c>
+      <c r="AV18" s="4">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="AW18" s="4">
+        <v>134.9</v>
+      </c>
+      <c r="AX18" s="4">
+        <v>136.69999999999999</v>
+      </c>
+      <c r="AY18" s="4">
+        <v>122.9</v>
+      </c>
+      <c r="AZ18" s="4">
+        <v>117.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="4">
+        <v>98.3</v>
+      </c>
+      <c r="C19" s="4">
+        <v>95.3</v>
+      </c>
+      <c r="D19" s="4">
+        <v>95.7</v>
+      </c>
+      <c r="E19" s="4">
+        <v>90.9</v>
+      </c>
+      <c r="F19" s="4">
+        <v>86.1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>90.9</v>
+      </c>
+      <c r="H19" s="4">
+        <v>87.8</v>
+      </c>
+      <c r="I19" s="4">
+        <v>87.2</v>
+      </c>
+      <c r="J19" s="4">
+        <v>85.1</v>
+      </c>
+      <c r="K19" s="4">
+        <v>87.4</v>
+      </c>
+      <c r="L19" s="4">
+        <v>89.1</v>
+      </c>
+      <c r="M19" s="4">
+        <v>91.9</v>
+      </c>
+      <c r="N19" s="4">
+        <v>93.4</v>
+      </c>
+      <c r="O19" s="4">
+        <v>102.2</v>
+      </c>
+      <c r="P19" s="4">
+        <v>107.6</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>113.5</v>
+      </c>
+      <c r="R19" s="4">
+        <v>118.9</v>
+      </c>
+      <c r="S19" s="4">
+        <v>126.3</v>
+      </c>
+      <c r="T19" s="4">
+        <v>124.3</v>
+      </c>
+      <c r="U19" s="4">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="V19" s="4">
+        <v>134.5</v>
+      </c>
+      <c r="W19" s="4">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="X19" s="4">
+        <v>141.6</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>136.4</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>140</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>142</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>146</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>147.6</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>142.9</v>
+      </c>
+      <c r="AF19" s="4">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="AG19" s="4">
+        <v>148.6</v>
+      </c>
+      <c r="AH19" s="4">
+        <v>155.1</v>
+      </c>
+      <c r="AI19" s="4">
+        <v>157.4</v>
+      </c>
+      <c r="AJ19" s="4">
+        <v>155</v>
+      </c>
+      <c r="AK19" s="4">
+        <v>156.6</v>
+      </c>
+      <c r="AL19" s="4">
+        <v>154.69999999999999</v>
+      </c>
+      <c r="AM19" s="4">
+        <v>153.80000000000001</v>
+      </c>
+      <c r="AN19" s="4">
+        <v>141.1</v>
+      </c>
+      <c r="AO19" s="4">
+        <v>141</v>
+      </c>
+      <c r="AP19" s="4">
+        <v>138.5</v>
+      </c>
+      <c r="AQ19" s="4">
+        <v>138</v>
+      </c>
+      <c r="AR19" s="4">
+        <v>140.30000000000001</v>
+      </c>
+      <c r="AS19" s="4">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="AT19" s="4">
+        <v>146.9</v>
+      </c>
+      <c r="AU19" s="4">
+        <v>140.6</v>
+      </c>
+      <c r="AV19" s="4">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="AW19" s="4">
+        <v>139.6</v>
+      </c>
+      <c r="AX19" s="4">
+        <v>142.9</v>
+      </c>
+      <c r="AY19" s="4">
+        <v>132.5</v>
+      </c>
+      <c r="AZ19" s="4">
+        <v>127.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="4">
+        <v>83.4</v>
+      </c>
+      <c r="C20" s="4">
+        <v>84.1</v>
+      </c>
+      <c r="D20" s="4">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="E20" s="4">
+        <v>74.7</v>
+      </c>
+      <c r="F20" s="4">
+        <v>72.7</v>
+      </c>
+      <c r="G20" s="4">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="H20" s="4">
+        <v>74.2</v>
+      </c>
+      <c r="I20" s="4">
+        <v>70.8</v>
+      </c>
+      <c r="J20" s="4">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="K20" s="4">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="L20" s="4">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="M20" s="4">
+        <v>78</v>
+      </c>
+      <c r="N20" s="4">
+        <v>80.3</v>
+      </c>
+      <c r="O20" s="4">
+        <v>90.8</v>
+      </c>
+      <c r="P20" s="4">
+        <v>90.3</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>99.6</v>
+      </c>
+      <c r="R20" s="4">
+        <v>104.8</v>
+      </c>
+      <c r="S20" s="4">
+        <v>111.1</v>
+      </c>
+      <c r="T20" s="4">
+        <v>113.6</v>
+      </c>
+      <c r="U20" s="4">
+        <v>127.4</v>
+      </c>
+      <c r="V20" s="4">
+        <v>126.4</v>
+      </c>
+      <c r="W20" s="4">
+        <v>130.9</v>
+      </c>
+      <c r="X20" s="4">
+        <v>130.4</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>131.6</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>134</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>136.9</v>
+      </c>
+      <c r="AC20" s="4">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="AD20" s="4">
+        <v>136.5</v>
+      </c>
+      <c r="AE20" s="4">
+        <v>135.6</v>
+      </c>
+      <c r="AF20" s="4">
+        <v>141</v>
+      </c>
+      <c r="AG20" s="4">
+        <v>147.6</v>
+      </c>
+      <c r="AH20" s="4">
+        <v>145.6</v>
+      </c>
+      <c r="AI20" s="4">
+        <v>155.4</v>
+      </c>
+      <c r="AJ20" s="4">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="AK20" s="4">
+        <v>151.69999999999999</v>
+      </c>
+      <c r="AL20" s="4">
+        <v>149</v>
+      </c>
+      <c r="AM20" s="4">
+        <v>151.5</v>
+      </c>
+      <c r="AN20" s="4">
+        <v>145.69999999999999</v>
+      </c>
+      <c r="AO20" s="4">
+        <v>140.30000000000001</v>
+      </c>
+      <c r="AP20" s="4">
+        <v>138.5</v>
+      </c>
+      <c r="AQ20" s="4">
+        <v>135.9</v>
+      </c>
+      <c r="AR20" s="4">
+        <v>141.1</v>
+      </c>
+      <c r="AS20" s="4">
+        <v>147.30000000000001</v>
+      </c>
+      <c r="AT20" s="4">
+        <v>142</v>
+      </c>
+      <c r="AU20" s="4">
+        <v>140.9</v>
+      </c>
+      <c r="AV20" s="4">
+        <v>138.69999999999999</v>
+      </c>
+      <c r="AW20" s="4">
+        <v>143.4</v>
+      </c>
+      <c r="AX20" s="4">
+        <v>146.30000000000001</v>
+      </c>
+      <c r="AY20" s="4">
+        <v>132.5</v>
+      </c>
+      <c r="AZ20" s="4">
+        <v>134.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="4">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="C21" s="4">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="D21" s="4">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="E21" s="4">
+        <v>61.4</v>
+      </c>
+      <c r="F21" s="4">
+        <v>59.3</v>
+      </c>
+      <c r="G21" s="4">
+        <v>61.2</v>
+      </c>
+      <c r="H21" s="4">
+        <v>59.3</v>
+      </c>
+      <c r="I21" s="4">
+        <v>60</v>
+      </c>
+      <c r="J21" s="4">
+        <v>56.2</v>
+      </c>
+      <c r="K21" s="4">
+        <v>58.3</v>
+      </c>
+      <c r="L21" s="4">
+        <v>59.4</v>
+      </c>
+      <c r="M21" s="4">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="N21" s="4">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="O21" s="4">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="P21" s="4">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>83</v>
+      </c>
+      <c r="R21" s="4">
+        <v>90.3</v>
+      </c>
+      <c r="S21" s="4">
+        <v>95.9</v>
+      </c>
+      <c r="T21" s="4">
+        <v>98.1</v>
+      </c>
+      <c r="U21" s="4">
+        <v>105.6</v>
+      </c>
+      <c r="V21" s="4">
+        <v>109.1</v>
+      </c>
+      <c r="W21" s="4">
+        <v>114.5</v>
+      </c>
+      <c r="X21" s="4">
+        <v>118</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>114.7</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>118</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>115</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>117.9</v>
+      </c>
+      <c r="AC21" s="4">
+        <v>128</v>
+      </c>
+      <c r="AD21" s="4">
+        <v>126.7</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>125.8</v>
+      </c>
+      <c r="AF21" s="4">
+        <v>131.30000000000001</v>
+      </c>
+      <c r="AG21" s="4">
+        <v>132.9</v>
+      </c>
+      <c r="AH21" s="4">
+        <v>139.5</v>
+      </c>
+      <c r="AI21" s="4">
+        <v>143.69999999999999</v>
+      </c>
+      <c r="AJ21" s="4">
+        <v>140.5</v>
+      </c>
+      <c r="AK21" s="4">
+        <v>145.19999999999999</v>
+      </c>
+      <c r="AL21" s="4">
+        <v>146.19999999999999</v>
+      </c>
+      <c r="AM21" s="4">
+        <v>146</v>
+      </c>
+      <c r="AN21" s="4">
+        <v>134.19999999999999</v>
+      </c>
+      <c r="AO21" s="4">
+        <v>134.4</v>
+      </c>
+      <c r="AP21" s="4">
+        <v>134</v>
+      </c>
+      <c r="AQ21" s="4">
+        <v>132</v>
+      </c>
+      <c r="AR21" s="4">
+        <v>136.1</v>
+      </c>
+      <c r="AS21" s="4">
+        <v>139.6</v>
+      </c>
+      <c r="AT21" s="4">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="AU21" s="4">
+        <v>138.5</v>
+      </c>
+      <c r="AV21" s="4">
+        <v>139.80000000000001</v>
+      </c>
+      <c r="AW21" s="4">
+        <v>137.19999999999999</v>
+      </c>
+      <c r="AX21" s="4">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="AY21" s="4">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="AZ21" s="4">
+        <v>124.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="4">
+        <v>56.4</v>
+      </c>
+      <c r="C22" s="4">
+        <v>55.1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>55.5</v>
+      </c>
+      <c r="E22" s="4">
+        <v>49.2</v>
+      </c>
+      <c r="F22" s="4">
+        <v>47.7</v>
+      </c>
+      <c r="G22" s="4">
+        <v>46.4</v>
+      </c>
+      <c r="H22" s="4">
+        <v>47.7</v>
+      </c>
+      <c r="I22" s="4">
+        <v>48.1</v>
+      </c>
+      <c r="J22" s="4">
+        <v>46.3</v>
+      </c>
+      <c r="K22" s="4">
+        <v>47.8</v>
+      </c>
+      <c r="L22" s="4">
+        <v>48.4</v>
+      </c>
+      <c r="M22" s="4">
+        <v>50.7</v>
+      </c>
+      <c r="N22" s="4">
+        <v>58.8</v>
+      </c>
+      <c r="O22" s="4">
+        <v>59.9</v>
+      </c>
+      <c r="P22" s="4">
+        <v>63.6</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="R22" s="4">
+        <v>74.7</v>
+      </c>
+      <c r="S22" s="4">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="T22" s="4">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="U22" s="4">
+        <v>90.9</v>
+      </c>
+      <c r="V22" s="4">
+        <v>92.4</v>
+      </c>
+      <c r="W22" s="4">
+        <v>99.1</v>
+      </c>
+      <c r="X22" s="4">
+        <v>101</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>100.2</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>101</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>99.6</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>103.9</v>
+      </c>
+      <c r="AC22" s="4">
+        <v>107.3</v>
+      </c>
+      <c r="AD22" s="4">
+        <v>106.9</v>
+      </c>
+      <c r="AE22" s="4">
+        <v>112</v>
+      </c>
+      <c r="AF22" s="4">
+        <v>115.9</v>
+      </c>
+      <c r="AG22" s="4">
+        <v>121.1</v>
+      </c>
+      <c r="AH22" s="4">
+        <v>123</v>
+      </c>
+      <c r="AI22" s="4">
+        <v>124.7</v>
+      </c>
+      <c r="AJ22" s="4">
+        <v>125.3</v>
+      </c>
+      <c r="AK22" s="4">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="AL22" s="4">
+        <v>123.1</v>
+      </c>
+      <c r="AM22" s="4">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="AN22" s="4">
+        <v>123.8</v>
+      </c>
+      <c r="AO22" s="4">
+        <v>122.4</v>
+      </c>
+      <c r="AP22" s="4">
+        <v>118.2</v>
+      </c>
+      <c r="AQ22" s="4">
+        <v>120.2</v>
+      </c>
+      <c r="AR22" s="4">
+        <v>125.3</v>
+      </c>
+      <c r="AS22" s="4">
+        <v>125.8</v>
+      </c>
+      <c r="AT22" s="4">
+        <v>124.5</v>
+      </c>
+      <c r="AU22" s="4">
+        <v>125.6</v>
+      </c>
+      <c r="AV22" s="4">
+        <v>125.3</v>
+      </c>
+      <c r="AW22" s="4">
+        <v>122.6</v>
+      </c>
+      <c r="AX22" s="4">
+        <v>130.9</v>
+      </c>
+      <c r="AY22" s="4">
+        <v>116.6</v>
+      </c>
+      <c r="AZ22" s="4">
+        <v>113.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="4">
+        <v>46.5</v>
+      </c>
+      <c r="C23" s="4">
+        <v>44.1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>43.5</v>
+      </c>
+      <c r="E23" s="4">
+        <v>40.6</v>
+      </c>
+      <c r="F23" s="4">
+        <v>36.9</v>
+      </c>
+      <c r="G23" s="4">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="H23" s="4">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="I23" s="4">
+        <v>37.1</v>
+      </c>
+      <c r="J23" s="4">
+        <v>35.5</v>
+      </c>
+      <c r="K23" s="4">
+        <v>38</v>
+      </c>
+      <c r="L23" s="4">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="M23" s="4">
+        <v>41.8</v>
+      </c>
+      <c r="N23" s="4">
+        <v>45.6</v>
+      </c>
+      <c r="O23" s="4">
+        <v>47.6</v>
+      </c>
+      <c r="P23" s="4">
+        <v>51.1</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>57.3</v>
+      </c>
+      <c r="R23" s="4">
+        <v>61.5</v>
+      </c>
+      <c r="S23" s="4">
+        <v>63.9</v>
+      </c>
+      <c r="T23" s="4">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="U23" s="4">
+        <v>75</v>
+      </c>
+      <c r="V23" s="4">
+        <v>74.3</v>
+      </c>
+      <c r="W23" s="4">
+        <v>82</v>
+      </c>
+      <c r="X23" s="4">
+        <v>86.5</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>81.7</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>87</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>89.9</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>87.8</v>
+      </c>
+      <c r="AC23" s="4">
+        <v>92.9</v>
+      </c>
+      <c r="AD23" s="4">
+        <v>91.5</v>
+      </c>
+      <c r="AE23" s="4">
+        <v>94.1</v>
+      </c>
+      <c r="AF23" s="4">
+        <v>98.2</v>
+      </c>
+      <c r="AG23" s="4">
+        <v>104.7</v>
+      </c>
+      <c r="AH23" s="4">
+        <v>103.5</v>
+      </c>
+      <c r="AI23" s="4">
+        <v>106.7</v>
+      </c>
+      <c r="AJ23" s="4">
+        <v>112</v>
+      </c>
+      <c r="AK23" s="4">
+        <v>115.4</v>
+      </c>
+      <c r="AL23" s="4">
+        <v>111.5</v>
+      </c>
+      <c r="AM23" s="4">
+        <v>116.6</v>
+      </c>
+      <c r="AN23" s="4">
+        <v>111.3</v>
+      </c>
+      <c r="AO23" s="4">
+        <v>107.6</v>
+      </c>
+      <c r="AP23" s="4">
+        <v>105.5</v>
+      </c>
+      <c r="AQ23" s="4">
+        <v>105.9</v>
+      </c>
+      <c r="AR23" s="4">
+        <v>107.2</v>
+      </c>
+      <c r="AS23" s="4">
+        <v>109.5</v>
+      </c>
+      <c r="AT23" s="4">
+        <v>110.5</v>
+      </c>
+      <c r="AU23" s="4">
+        <v>113.9</v>
+      </c>
+      <c r="AV23" s="4">
+        <v>112.2</v>
+      </c>
+      <c r="AW23" s="4">
+        <v>110.3</v>
+      </c>
+      <c r="AX23" s="4">
+        <v>116.1</v>
+      </c>
+      <c r="AY23" s="4">
+        <v>103.1</v>
+      </c>
+      <c r="AZ23" s="4">
+        <v>101.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="4">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="C24" s="4">
+        <v>35.4</v>
+      </c>
+      <c r="D24" s="4">
+        <v>33.6</v>
+      </c>
+      <c r="E24" s="4">
+        <v>33.6</v>
+      </c>
+      <c r="F24" s="4">
+        <v>31</v>
+      </c>
+      <c r="G24" s="4">
+        <v>28.5</v>
+      </c>
+      <c r="H24" s="4">
+        <v>30.2</v>
+      </c>
+      <c r="I24" s="4">
+        <v>28.6</v>
+      </c>
+      <c r="J24" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="K24" s="4">
+        <v>28.4</v>
+      </c>
+      <c r="L24" s="4">
+        <v>29.1</v>
+      </c>
+      <c r="M24" s="4">
+        <v>31.8</v>
+      </c>
+      <c r="N24" s="4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="O24" s="4">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="P24" s="4">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>43.9</v>
+      </c>
+      <c r="R24" s="4">
+        <v>48.5</v>
+      </c>
+      <c r="S24" s="4">
+        <v>51</v>
+      </c>
+      <c r="T24" s="4">
+        <v>56</v>
+      </c>
+      <c r="U24" s="4">
+        <v>55.7</v>
+      </c>
+      <c r="V24" s="4">
+        <v>61.1</v>
+      </c>
+      <c r="W24" s="4">
+        <v>66.3</v>
+      </c>
+      <c r="X24" s="4">
+        <v>69.8</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>68.5</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>68.8</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>70</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>73.5</v>
+      </c>
+      <c r="AC24" s="4">
+        <v>75.8</v>
+      </c>
+      <c r="AD24" s="4">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="AE24" s="4">
+        <v>77.2</v>
+      </c>
+      <c r="AF24" s="4">
+        <v>81.8</v>
+      </c>
+      <c r="AG24" s="4">
+        <v>87.1</v>
+      </c>
+      <c r="AH24" s="4">
+        <v>87.5</v>
+      </c>
+      <c r="AI24" s="4">
+        <v>91.4</v>
+      </c>
+      <c r="AJ24" s="4">
+        <v>93.7</v>
+      </c>
+      <c r="AK24" s="4">
+        <v>97.1</v>
+      </c>
+      <c r="AL24" s="4">
+        <v>93.6</v>
+      </c>
+      <c r="AM24" s="4">
+        <v>96.4</v>
+      </c>
+      <c r="AN24" s="4">
+        <v>91.1</v>
+      </c>
+      <c r="AO24" s="4">
+        <v>91</v>
+      </c>
+      <c r="AP24" s="4">
+        <v>87.7</v>
+      </c>
+      <c r="AQ24" s="4">
+        <v>93.8</v>
+      </c>
+      <c r="AR24" s="4">
+        <v>92.4</v>
+      </c>
+      <c r="AS24" s="4">
+        <v>98.9</v>
+      </c>
+      <c r="AT24" s="4">
+        <v>95.9</v>
+      </c>
+      <c r="AU24" s="4">
+        <v>99.1</v>
+      </c>
+      <c r="AV24" s="4">
+        <v>97.2</v>
+      </c>
+      <c r="AW24" s="4">
+        <v>98.3</v>
+      </c>
+      <c r="AX24" s="4">
+        <v>102.3</v>
+      </c>
+      <c r="AY24" s="4">
+        <v>92.4</v>
+      </c>
+      <c r="AZ24" s="4">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="4">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4">
+        <v>29.2</v>
+      </c>
+      <c r="D25" s="4">
+        <v>24.1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="F25" s="4">
+        <v>22.4</v>
+      </c>
+      <c r="G25" s="4">
+        <v>23.6</v>
+      </c>
+      <c r="H25" s="4">
+        <v>23</v>
+      </c>
+      <c r="I25" s="4">
+        <v>22.6</v>
+      </c>
+      <c r="J25" s="4">
+        <v>21.3</v>
+      </c>
+      <c r="K25" s="4">
+        <v>22.4</v>
+      </c>
+      <c r="L25" s="4">
+        <v>21.9</v>
+      </c>
+      <c r="M25" s="4">
+        <v>25.8</v>
+      </c>
+      <c r="N25" s="4">
+        <v>27.1</v>
+      </c>
+      <c r="O25" s="4">
+        <v>28.4</v>
+      </c>
+      <c r="P25" s="4">
+        <v>31.5</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>35.1</v>
+      </c>
+      <c r="R25" s="4">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="S25" s="4">
+        <v>38.9</v>
+      </c>
+      <c r="T25" s="4">
+        <v>41.5</v>
+      </c>
+      <c r="U25" s="4">
+        <v>45.2</v>
+      </c>
+      <c r="V25" s="4">
+        <v>49.3</v>
+      </c>
+      <c r="W25" s="4">
+        <v>53.5</v>
+      </c>
+      <c r="X25" s="4">
+        <v>53.5</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>53.9</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>56.9</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>57</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>60.7</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>58.8</v>
+      </c>
+      <c r="AD25" s="4">
+        <v>61.4</v>
+      </c>
+      <c r="AE25" s="4">
+        <v>63.5</v>
+      </c>
+      <c r="AF25" s="4">
+        <v>66.3</v>
+      </c>
+      <c r="AG25" s="4">
+        <v>67.5</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="AI25" s="4">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="AJ25" s="4">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="AK25" s="4">
+        <v>79.8</v>
+      </c>
+      <c r="AL25" s="4">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="AM25" s="4">
+        <v>82.8</v>
+      </c>
+      <c r="AN25" s="4">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="AO25" s="4">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="AP25" s="4">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="AQ25" s="4">
+        <v>78</v>
+      </c>
+      <c r="AR25" s="4">
+        <v>77.8</v>
+      </c>
+      <c r="AS25" s="4">
+        <v>82.3</v>
+      </c>
+      <c r="AT25" s="4">
+        <v>82.7</v>
+      </c>
+      <c r="AU25" s="4">
+        <v>80.7</v>
+      </c>
+      <c r="AV25" s="4">
+        <v>81.5</v>
+      </c>
+      <c r="AW25" s="4">
+        <v>83</v>
+      </c>
+      <c r="AX25" s="4">
+        <v>90.7</v>
+      </c>
+      <c r="AY25" s="4">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="AZ25" s="4">
+        <v>75.099999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="4">
+        <v>22</v>
+      </c>
+      <c r="C26" s="4">
+        <v>21.9</v>
+      </c>
+      <c r="D26" s="4">
+        <v>20.3</v>
+      </c>
+      <c r="E26" s="4">
+        <v>19.2</v>
+      </c>
+      <c r="F26" s="4">
+        <v>18.7</v>
+      </c>
+      <c r="G26" s="4">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H26" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="I26" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="J26" s="4">
+        <v>16.8</v>
+      </c>
+      <c r="K26" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="L26" s="4">
+        <v>16</v>
+      </c>
+      <c r="M26" s="4">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="N26" s="4">
+        <v>20.3</v>
+      </c>
+      <c r="O26" s="4">
+        <v>22.2</v>
+      </c>
+      <c r="P26" s="4">
+        <v>24.1</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>24.1</v>
+      </c>
+      <c r="R26" s="4">
+        <v>27.5</v>
+      </c>
+      <c r="S26" s="4">
+        <v>29.1</v>
+      </c>
+      <c r="T26" s="4">
+        <v>32.4</v>
+      </c>
+      <c r="U26" s="4">
+        <v>36</v>
+      </c>
+      <c r="V26" s="4">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="W26" s="4">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="X26" s="4">
+        <v>42.4</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>41.6</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>44.9</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>43.3</v>
+      </c>
+      <c r="AB26" s="4">
+        <v>47.1</v>
+      </c>
+      <c r="AC26" s="4">
+        <v>48.7</v>
+      </c>
+      <c r="AD26" s="4">
+        <v>47.6</v>
+      </c>
+      <c r="AE26" s="4">
+        <v>48</v>
+      </c>
+      <c r="AF26" s="4">
+        <v>51</v>
+      </c>
+      <c r="AG26" s="4">
+        <v>51.4</v>
+      </c>
+      <c r="AH26" s="4">
+        <v>55.2</v>
+      </c>
+      <c r="AI26" s="4">
+        <v>56.4</v>
+      </c>
+      <c r="AJ26" s="4">
+        <v>61.7</v>
+      </c>
+      <c r="AK26" s="4">
+        <v>61.6</v>
+      </c>
+      <c r="AL26" s="4">
+        <v>61.3</v>
+      </c>
+      <c r="AM26" s="4">
+        <v>63.7</v>
+      </c>
+      <c r="AN26" s="4">
+        <v>62.2</v>
+      </c>
+      <c r="AO26" s="4">
+        <v>60.9</v>
+      </c>
+      <c r="AP26" s="4">
+        <v>60.9</v>
+      </c>
+      <c r="AQ26" s="4">
+        <v>60.9</v>
+      </c>
+      <c r="AR26" s="4">
+        <v>63.5</v>
+      </c>
+      <c r="AS26" s="4">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="AT26" s="4">
+        <v>65.5</v>
+      </c>
+      <c r="AU26" s="4">
+        <v>65.2</v>
+      </c>
+      <c r="AV26" s="4">
+        <v>66.5</v>
+      </c>
+      <c r="AW26" s="4">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="AX26" s="4">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="AY26" s="4">
+        <v>65.3</v>
+      </c>
+      <c r="AZ26" s="4">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="C27" s="4">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D27" s="4">
+        <v>15</v>
+      </c>
+      <c r="E27" s="4">
+        <v>14.1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="G27" s="4">
+        <v>13.7</v>
+      </c>
+      <c r="H27" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="I27" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="J27" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="K27" s="4">
+        <v>12</v>
+      </c>
+      <c r="L27" s="4">
+        <v>11.3</v>
+      </c>
+      <c r="M27" s="4">
+        <v>13.9</v>
+      </c>
+      <c r="N27" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="O27" s="4">
+        <v>15.6</v>
+      </c>
+      <c r="P27" s="4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>18</v>
+      </c>
+      <c r="R27" s="4">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="S27" s="4">
+        <v>22.9</v>
+      </c>
+      <c r="T27" s="4">
+        <v>24.1</v>
+      </c>
+      <c r="U27" s="4">
+        <v>26.5</v>
+      </c>
+      <c r="V27" s="4">
+        <v>26</v>
+      </c>
+      <c r="W27" s="4">
+        <v>30</v>
+      </c>
+      <c r="X27" s="4">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>31.8</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>33.1</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>34.4</v>
+      </c>
+      <c r="AB27" s="4">
+        <v>34.5</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>36</v>
+      </c>
+      <c r="AD27" s="4">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="AE27" s="4">
+        <v>36.9</v>
+      </c>
+      <c r="AF27" s="4">
+        <v>39.4</v>
+      </c>
+      <c r="AG27" s="4">
+        <v>41.3</v>
+      </c>
+      <c r="AH27" s="4">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="AI27" s="4">
+        <v>44</v>
+      </c>
+      <c r="AJ27" s="4">
+        <v>45.5</v>
+      </c>
+      <c r="AK27" s="4">
+        <v>48</v>
+      </c>
+      <c r="AL27" s="4">
+        <v>47.4</v>
+      </c>
+      <c r="AM27" s="4">
+        <v>48.8</v>
+      </c>
+      <c r="AN27" s="4">
+        <v>47.7</v>
+      </c>
+      <c r="AO27" s="4">
+        <v>48.8</v>
+      </c>
+      <c r="AP27" s="4">
+        <v>47.8</v>
+      </c>
+      <c r="AQ27" s="4">
+        <v>48.8</v>
+      </c>
+      <c r="AR27" s="4">
+        <v>45.9</v>
+      </c>
+      <c r="AS27" s="4">
+        <v>54.4</v>
+      </c>
+      <c r="AT27" s="4">
+        <v>51.8</v>
+      </c>
+      <c r="AU27" s="4">
+        <v>54.1</v>
+      </c>
+      <c r="AV27" s="4">
+        <v>53.8</v>
+      </c>
+      <c r="AW27" s="4">
+        <v>52.6</v>
+      </c>
+      <c r="AX27" s="4">
+        <v>56.8</v>
+      </c>
+      <c r="AY27" s="4">
+        <v>51</v>
+      </c>
+      <c r="AZ27" s="4">
+        <v>48.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="4">
+        <v>12.7</v>
+      </c>
+      <c r="C28" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="D28" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="E28" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="F28" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="G28" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H28" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="I28" s="4">
+        <v>9</v>
+      </c>
+      <c r="J28" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K28" s="4">
+        <v>8</v>
+      </c>
+      <c r="L28" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="M28" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="N28" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="O28" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="P28" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>13.9</v>
+      </c>
+      <c r="R28" s="4">
+        <v>14.1</v>
+      </c>
+      <c r="S28" s="4">
+        <v>15.7</v>
+      </c>
+      <c r="T28" s="4">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="U28" s="4">
+        <v>18.2</v>
+      </c>
+      <c r="V28" s="4">
+        <v>19</v>
+      </c>
+      <c r="W28" s="4">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="X28" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>22.2</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>24.5</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>25.1</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>25.5</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>25.8</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>26.6</v>
+      </c>
+      <c r="AE28" s="4">
+        <v>28.2</v>
+      </c>
+      <c r="AF28" s="4">
+        <v>27.9</v>
+      </c>
+      <c r="AG28" s="4">
+        <v>28.3</v>
+      </c>
+      <c r="AH28" s="4">
+        <v>29.8</v>
+      </c>
+      <c r="AI28" s="4">
+        <v>31.8</v>
+      </c>
+      <c r="AJ28" s="4">
+        <v>34.4</v>
+      </c>
+      <c r="AK28" s="4">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="AL28" s="4">
+        <v>35.1</v>
+      </c>
+      <c r="AM28" s="4">
+        <v>37.1</v>
+      </c>
+      <c r="AN28" s="4">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="AO28" s="4">
+        <v>36.6</v>
+      </c>
+      <c r="AP28" s="4">
+        <v>36.6</v>
+      </c>
+      <c r="AQ28" s="4">
+        <v>37</v>
+      </c>
+      <c r="AR28" s="4">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="AS28" s="4">
+        <v>40.4</v>
+      </c>
+      <c r="AT28" s="4">
+        <v>39.9</v>
+      </c>
+      <c r="AU28" s="4">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="AV28" s="4">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="AW28" s="4">
+        <v>41.9</v>
+      </c>
+      <c r="AX28" s="4">
+        <v>46.3</v>
+      </c>
+      <c r="AY28" s="4">
+        <v>39.9</v>
+      </c>
+      <c r="AZ28" s="4">
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C29" s="4">
+        <v>9</v>
+      </c>
+      <c r="D29" s="4">
+        <v>8</v>
+      </c>
+      <c r="E29" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="F29" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="G29" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="H29" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="I29" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="J29" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K29" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="L29" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="M29" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="N29" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="O29" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="P29" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="R29" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="S29" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="T29" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="U29" s="4">
+        <v>11.9</v>
+      </c>
+      <c r="V29" s="4">
+        <v>13.3</v>
+      </c>
+      <c r="W29" s="4">
+        <v>13.6</v>
+      </c>
+      <c r="X29" s="4">
+        <v>14.7</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>16</v>
+      </c>
+      <c r="AA29" s="4">
+        <v>16</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="AC29" s="4">
+        <v>18.2</v>
+      </c>
+      <c r="AD29" s="4">
+        <v>18.7</v>
+      </c>
+      <c r="AE29" s="4">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AF29" s="4">
+        <v>19.8</v>
+      </c>
+      <c r="AG29" s="4">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="AH29" s="4">
+        <v>21.3</v>
+      </c>
+      <c r="AI29" s="4">
+        <v>22.1</v>
+      </c>
+      <c r="AJ29" s="4">
+        <v>23.1</v>
+      </c>
+      <c r="AK29" s="4">
+        <v>26.4</v>
+      </c>
+      <c r="AL29" s="4">
+        <v>27</v>
+      </c>
+      <c r="AM29" s="4">
+        <v>27.7</v>
+      </c>
+      <c r="AN29" s="4">
+        <v>26.8</v>
+      </c>
+      <c r="AO29" s="4">
+        <v>26.9</v>
+      </c>
+      <c r="AP29" s="4">
+        <v>26.9</v>
+      </c>
+      <c r="AQ29" s="4">
+        <v>28.8</v>
+      </c>
+      <c r="AR29" s="4">
+        <v>28.5</v>
+      </c>
+      <c r="AS29" s="4">
+        <v>29.6</v>
+      </c>
+      <c r="AT29" s="4">
+        <v>30.5</v>
+      </c>
+      <c r="AU29" s="4">
+        <v>32.1</v>
+      </c>
+      <c r="AV29" s="4">
+        <v>30.3</v>
+      </c>
+      <c r="AW29" s="4">
+        <v>32</v>
+      </c>
+      <c r="AX29" s="4">
+        <v>34</v>
+      </c>
+      <c r="AY29" s="4">
+        <v>29.6</v>
+      </c>
+      <c r="AZ29" s="4">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="C30" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="D30" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="E30" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="F30" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="G30" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="H30" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I30" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J30" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="K30" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L30" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="M30" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="N30" s="4">
+        <v>5</v>
+      </c>
+      <c r="O30" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="P30" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="R30" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="S30" s="4">
+        <v>7</v>
+      </c>
+      <c r="T30" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="U30" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="V30" s="4">
+        <v>8</v>
+      </c>
+      <c r="W30" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="X30" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="AA30" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="AB30" s="4">
+        <v>10.7</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="AD30" s="4">
+        <v>12.1</v>
+      </c>
+      <c r="AE30" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="AF30" s="4">
+        <v>13</v>
+      </c>
+      <c r="AG30" s="4">
+        <v>13.1</v>
+      </c>
+      <c r="AH30" s="4">
+        <v>13.3</v>
+      </c>
+      <c r="AI30" s="4">
+        <v>15.9</v>
+      </c>
+      <c r="AJ30" s="4">
+        <v>16</v>
+      </c>
+      <c r="AK30" s="4">
+        <v>16.7</v>
+      </c>
+      <c r="AL30" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AM30" s="4">
+        <v>16.7</v>
+      </c>
+      <c r="AN30" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="AO30" s="4">
+        <v>17</v>
+      </c>
+      <c r="AP30" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="AQ30" s="4">
+        <v>18.8</v>
+      </c>
+      <c r="AR30" s="4">
+        <v>18.7</v>
+      </c>
+      <c r="AS30" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="AT30" s="4">
+        <v>22.1</v>
+      </c>
+      <c r="AU30" s="4">
+        <v>22.3</v>
+      </c>
+      <c r="AV30" s="4">
+        <v>20.7</v>
+      </c>
+      <c r="AW30" s="4">
+        <v>20.8</v>
+      </c>
+      <c r="AX30" s="4">
+        <v>23.4</v>
+      </c>
+      <c r="AY30" s="4">
+        <v>22.7</v>
+      </c>
+      <c r="AZ30" s="4">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C31" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="D31" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="E31" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="G31" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H31" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="I31" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J31" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K31" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="L31" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="M31" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N31" s="4">
+        <v>3</v>
+      </c>
+      <c r="O31" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="P31" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>3</v>
+      </c>
+      <c r="R31" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="S31" s="4">
+        <v>4</v>
+      </c>
+      <c r="T31" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U31" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="V31" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="W31" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="X31" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="AA31" s="4">
+        <v>6</v>
+      </c>
+      <c r="AB31" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="AC31" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="AD31" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="AE31" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="AF31" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="AG31" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="AH31" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="AI31" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="AJ31" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AK31" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="AL31" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="AM31" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AN31" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="AO31" s="4">
+        <v>11.3</v>
+      </c>
+      <c r="AP31" s="4">
+        <v>12</v>
+      </c>
+      <c r="AQ31" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="AR31" s="4">
+        <v>11.9</v>
+      </c>
+      <c r="AS31" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="AT31" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="AU31" s="4">
+        <v>13.8</v>
+      </c>
+      <c r="AV31" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="AW31" s="4">
+        <v>13.7</v>
+      </c>
+      <c r="AX31" s="4">
+        <v>14.7</v>
+      </c>
+      <c r="AY31" s="4">
+        <v>13.7</v>
+      </c>
+      <c r="AZ31" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="C32" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G32" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="J32" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="L32" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="M32" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="N32" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="O32" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="P32" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>2</v>
+      </c>
+      <c r="R32" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="S32" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T32" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="U32" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="V32" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="W32" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="X32" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="Y32" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="AA32" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="AB32" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="AC32" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="AD32" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="AE32" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="AF32" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="AG32" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="AI32" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AJ32" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="AK32" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="AL32" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="AM32" s="4">
+        <v>6</v>
+      </c>
+      <c r="AN32" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="AO32" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="AP32" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="AQ32" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="AR32" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="AS32" s="4">
+        <v>7</v>
+      </c>
+      <c r="AT32" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="AU32" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="AV32" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="AW32" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AX32" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="AY32" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AZ32" s="4">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="J33" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="M33" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="N33" s="4">
+        <v>1</v>
+      </c>
+      <c r="O33" s="4">
+        <v>1</v>
+      </c>
+      <c r="P33" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R33" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S33" s="4">
+        <v>1</v>
+      </c>
+      <c r="T33" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="U33" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="V33" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="W33" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="X33" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="Z33" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="AA33" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="AB33" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="AC33" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="AD33" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="AE33" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="AF33" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="AG33" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="AH33" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AI33" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="AJ33" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="AK33" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="AL33" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="AM33" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="AN33" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="AO33" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="AP33" s="4">
+        <v>3</v>
+      </c>
+      <c r="AQ33" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="AR33" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="AS33" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="AT33" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="AU33" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AV33" s="4">
+        <v>5</v>
+      </c>
+      <c r="AW33" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="AX33" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AY33" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="AZ33" s="4">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="N34" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="O34" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="P34" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="R34" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="S34" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="T34" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="U34" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="V34" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="W34" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="X34" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="Y34" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="Z34" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AB34" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AC34" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AE34" s="4">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="AG34" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AH34" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="AI34" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AJ34" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="AK34" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="AL34" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="AM34" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AN34" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="AO34" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="AP34" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="AQ34" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="AR34" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="AS34" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="AT34" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="AU34" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AV34" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="AW34" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="AX34" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="AY34" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="AZ34" s="4">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H35" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="J35" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="N35" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="O35" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="P35" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="R35" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="S35" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="T35" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="U35" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="V35" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="W35" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="X35" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y35" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="Z35" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AA35" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AB35" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AC35" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AD35" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="AE35" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="AF35" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="AG35" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="AH35" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="AI35" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="AJ35" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="AK35" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="AL35" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="AM35" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AN35" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="AO35" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="AP35" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AQ35" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AR35" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS35" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AT35" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="AU35" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="AV35" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="AW35" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="AX35" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AY35" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AZ35" s="4">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="M36" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="N36" s="4">
+        <v>0</v>
+      </c>
+      <c r="O36" s="4">
+        <v>0</v>
+      </c>
+      <c r="P36" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>0</v>
+      </c>
+      <c r="R36" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S36" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="T36" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="U36" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="V36" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="W36" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="X36" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="Y36" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Z36" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AA36" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AB36" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AC36" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AD36" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AE36" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AF36" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AG36" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AH36" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AI36" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AJ36" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AK36" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AL36" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AM36" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AN36" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AO36" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="AP36" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AQ36" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AR36" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AS36" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="AT36" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="AU36" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="AV36" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="AW36" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AX36" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY36" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AZ36" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4">
+        <v>0</v>
+      </c>
+      <c r="O37" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="P37" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>0</v>
+      </c>
+      <c r="R37" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="S37" s="4">
+        <v>0</v>
+      </c>
+      <c r="T37" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="U37" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="V37" s="4">
+        <v>0</v>
+      </c>
+      <c r="W37" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="X37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AA37" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AB37" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AC37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AF37" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AG37" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AH37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AJ37" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AK37" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AL37" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AM37" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AN37" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AO37" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AP37" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AQ37" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AR37" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AS37" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AT37" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AU37" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AV37" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AW37" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AX37" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AY37" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AZ37" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
+        <v>0</v>
+      </c>
+      <c r="O38" s="4">
+        <v>0</v>
+      </c>
+      <c r="P38" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>0</v>
+      </c>
+      <c r="R38" s="4">
+        <v>0</v>
+      </c>
+      <c r="S38" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="T38" s="4">
+        <v>0</v>
+      </c>
+      <c r="U38" s="4">
+        <v>0</v>
+      </c>
+      <c r="V38" s="4">
+        <v>0</v>
+      </c>
+      <c r="W38" s="4">
+        <v>0</v>
+      </c>
+      <c r="X38" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AG38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AI38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AK38" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AL38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AN38" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AO38" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AP38" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AQ38" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AR38" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AS38" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="AT38" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AU38" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AV38" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AW38" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="AX38" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="AY38" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="AZ38" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dataproject/data/BOG1.xlsx
+++ b/dataproject/data/BOG1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliusvikjaer/Desktop/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliusvikjaer/projects-2024-mikkel-julius-jacob-5/dataproject/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245EF78A-072F-AE4B-A210-4FA367DD8AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D985C7A-EBD7-0C4B-8918-1D2C94973F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{66BBCDE3-EF72-F348-BCB7-BF9BD7A7DFEC}"/>
+    <workbookView xWindow="5960" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{66BBCDE3-EF72-F348-BCB7-BF9BD7A7DFEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -725,7 +725,7 @@
   <dimension ref="A1:AZ10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2181,7 +2181,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>60</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>61</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>62</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>63</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>64</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="10" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="12" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>68</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="13" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>69</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>70</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="15" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>71</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>62.3</v>
       </c>
     </row>
-    <row r="16" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>72</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="17" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>73</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>103.1</v>
       </c>
     </row>
-    <row r="18" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>74</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>117.5</v>
       </c>
     </row>
-    <row r="19" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>75</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>127.9</v>
       </c>
     </row>
-    <row r="20" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>76</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>134.1</v>
       </c>
     </row>
-    <row r="21" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>77</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>124.5</v>
       </c>
     </row>
-    <row r="22" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>78</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>113.7</v>
       </c>
     </row>
-    <row r="23" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>79</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>101.8</v>
       </c>
     </row>
-    <row r="24" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>80</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>90.9</v>
       </c>
     </row>
-    <row r="25" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>81</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>75.099999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>82</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>63.6</v>
       </c>
     </row>
-    <row r="27" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>83</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>48.9</v>
       </c>
     </row>
-    <row r="28" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>84</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>85</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="30" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>86</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="31" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>87</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>88</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="33" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>89</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="34" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>90</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="35" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>91</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="36" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>92</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="37" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>93</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="38" spans="1:52" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>94</v>
       </c>
